--- a/QMU/APP/dataset/zhuangji-BP-3.11少量数据/撞击-训练用（有限元+蒙特卡洛）-少量数据out.xlsx
+++ b/QMU/APP/dataset/zhuangji-BP-3.11少量数据/撞击-训练用（有限元+蒙特卡洛）-少量数据out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB\MyMatlab\QMU\APP\dataset\zhuangji-BP-3.11少量数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912AA329-D8D0-46CB-9668-4E303BDCCBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89EBAA8-1D57-4233-BC8C-14B3AA497DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="315" windowWidth="17655" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="930" windowWidth="17595" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -345,20 +344,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A504"/>
+  <dimension ref="A1:A675"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A653" workbookViewId="0">
+      <selection activeCell="A654" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -368,7 +364,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -378,7 +374,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -388,7 +384,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -403,12 +399,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -423,12 +419,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -438,7 +434,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -453,12 +449,12 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -473,7 +469,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
@@ -493,7 +489,7 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
@@ -503,7 +499,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -513,12 +509,12 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
@@ -528,37 +524,37 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
@@ -578,7 +574,7 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
@@ -588,7 +584,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
@@ -603,12 +599,12 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
@@ -628,17 +624,17 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
@@ -653,12 +649,12 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
@@ -668,12 +664,12 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
@@ -683,27 +679,27 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
@@ -713,7 +709,7 @@
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
@@ -723,12 +719,12 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
@@ -738,7 +734,7 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
@@ -753,12 +749,12 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
@@ -768,7 +764,7 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
@@ -778,7 +774,7 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
@@ -793,12 +789,12 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
@@ -808,7 +804,7 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
@@ -818,7 +814,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
@@ -828,12 +824,12 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
@@ -843,7 +839,7 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
@@ -858,7 +854,7 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
@@ -878,12 +874,12 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
@@ -893,7 +889,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
@@ -903,7 +899,7 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
@@ -918,12 +914,12 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
@@ -938,7 +934,7 @@
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
@@ -958,17 +954,17 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
@@ -978,7 +974,7 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
@@ -993,7 +989,7 @@
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
@@ -1003,17 +999,17 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
@@ -1023,32 +1019,32 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
@@ -1058,7 +1054,7 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
@@ -1073,12 +1069,12 @@
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
@@ -1093,7 +1089,7 @@
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
@@ -1103,17 +1099,17 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
@@ -1128,12 +1124,12 @@
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
@@ -1148,7 +1144,7 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
@@ -1158,12 +1154,12 @@
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
@@ -1173,7 +1169,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
@@ -1183,7 +1179,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
@@ -1198,7 +1194,7 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
@@ -1213,12 +1209,12 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
@@ -1233,12 +1229,12 @@
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
@@ -1248,12 +1244,12 @@
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
@@ -1263,12 +1259,12 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
@@ -1283,12 +1279,12 @@
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
@@ -1298,7 +1294,7 @@
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
@@ -1313,12 +1309,12 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
@@ -1333,22 +1329,22 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
@@ -1358,7 +1354,7 @@
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
@@ -1373,1506 +1369,2361 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
+      <c r="A205">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
+      <c r="A206">
         <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
+      <c r="A207">
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
-        <v>1</v>
+      <c r="A208">
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
-        <v>0</v>
+      <c r="A209">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
+      <c r="A210">
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
-        <v>0</v>
+      <c r="A211">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
+      <c r="A212">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
+      <c r="A213">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
-        <v>1</v>
+      <c r="A214">
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
-        <v>0</v>
+      <c r="A215">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
-        <v>1</v>
+      <c r="A216">
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
-        <v>1</v>
+      <c r="A217">
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
-        <v>0</v>
+      <c r="A218">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
-        <v>1</v>
+      <c r="A219">
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
+      <c r="A220">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
+      <c r="A221">
         <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" s="1">
-        <v>0</v>
+      <c r="A222">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" s="1">
+      <c r="A223">
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" s="1">
+      <c r="A224">
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" s="1">
-        <v>1</v>
+      <c r="A225">
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" s="1">
-        <v>0</v>
+      <c r="A226">
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" s="1">
+      <c r="A227">
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" s="1">
+      <c r="A228">
         <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" s="1">
-        <v>0</v>
+      <c r="A229">
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" s="1">
-        <v>1</v>
+      <c r="A230">
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" s="1">
-        <v>1</v>
+      <c r="A231">
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" s="1">
-        <v>0</v>
+      <c r="A232">
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" s="1">
+      <c r="A233">
         <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" s="1">
-        <v>0</v>
+      <c r="A234">
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="1">
-        <v>1</v>
+      <c r="A235">
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
+      <c r="A236">
         <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" s="1">
+      <c r="A237">
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
-        <v>1</v>
+      <c r="A238">
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="1">
-        <v>0</v>
+      <c r="A239">
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="1">
+      <c r="A240">
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
+      <c r="A241">
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
-        <v>0</v>
+      <c r="A242">
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="1">
-        <v>1</v>
+      <c r="A243">
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
+      <c r="A244">
         <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" s="1">
-        <v>1</v>
+      <c r="A245">
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
-        <v>0</v>
+      <c r="A246">
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
-        <v>0</v>
+      <c r="A247">
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
-        <v>1</v>
+      <c r="A248">
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" s="1">
+      <c r="A249">
         <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" s="1">
+      <c r="A250">
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" s="1">
+      <c r="A251">
         <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" s="1">
+      <c r="A252">
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="1">
+      <c r="A253">
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="1">
+      <c r="A254">
         <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="1">
+      <c r="A255">
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" s="1">
+      <c r="A256">
         <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="1">
-        <v>1</v>
+      <c r="A257">
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="1">
+      <c r="A258">
         <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="1">
+      <c r="A259">
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" s="1">
-        <v>0</v>
+      <c r="A260">
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" s="1">
-        <v>0</v>
+      <c r="A261">
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" s="1">
-        <v>1</v>
+      <c r="A262">
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" s="1">
+      <c r="A263">
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" s="1">
+      <c r="A264">
         <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" s="1">
+      <c r="A265">
         <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" s="1">
+      <c r="A266">
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" s="1">
-        <v>0</v>
+      <c r="A267">
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268" s="1">
-        <v>1</v>
+      <c r="A268">
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" s="1">
+      <c r="A269">
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270" s="1">
+      <c r="A270">
         <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271" s="1">
-        <v>1</v>
+      <c r="A271">
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272" s="1">
-        <v>1</v>
+      <c r="A272">
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" s="1">
-        <v>0</v>
+      <c r="A273">
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274" s="1">
+      <c r="A274">
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275" s="1">
+      <c r="A275">
         <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276" s="1">
-        <v>0</v>
+      <c r="A276">
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277" s="1">
+      <c r="A277">
         <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A278" s="1">
+      <c r="A278">
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" s="1">
+      <c r="A279">
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280" s="1">
+      <c r="A280">
         <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281" s="1">
-        <v>1</v>
+      <c r="A281">
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" s="1">
-        <v>0</v>
+      <c r="A282">
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283" s="1">
-        <v>1</v>
+      <c r="A283">
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284" s="1">
-        <v>0</v>
+      <c r="A284">
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285" s="1">
-        <v>0</v>
+      <c r="A285">
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286" s="1">
-        <v>1</v>
+      <c r="A286">
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" s="1">
-        <v>1</v>
+      <c r="A287">
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288" s="1">
-        <v>0</v>
+      <c r="A288">
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289" s="1">
+      <c r="A289">
         <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290" s="1">
+      <c r="A290">
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291" s="1">
-        <v>0</v>
+      <c r="A291">
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292" s="1">
-        <v>1</v>
+      <c r="A292">
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A293" s="1">
-        <v>1</v>
+      <c r="A293">
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294" s="1">
-        <v>0</v>
+      <c r="A294">
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A295" s="1">
-        <v>1</v>
+      <c r="A295">
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296" s="1">
-        <v>0</v>
+      <c r="A296">
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297" s="1">
-        <v>1</v>
+      <c r="A297">
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
+      <c r="A298">
         <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299" s="1">
+      <c r="A299">
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
+      <c r="A300">
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A301" s="1">
-        <v>1</v>
+      <c r="A301">
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A302" s="1">
-        <v>0</v>
+      <c r="A302">
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A303" s="1">
-        <v>1</v>
+      <c r="A303">
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A304" s="1">
-        <v>0</v>
+      <c r="A304">
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="1">
+      <c r="A305">
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" s="1">
+      <c r="A306">
         <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" s="1">
-        <v>1</v>
+      <c r="A307">
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" s="1">
+      <c r="A308">
         <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A309" s="1">
+      <c r="A309">
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A310" s="1">
-        <v>0</v>
+      <c r="A310">
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" s="1">
-        <v>0</v>
+      <c r="A311">
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" s="1">
-        <v>1</v>
+      <c r="A312">
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" s="1">
+      <c r="A313">
         <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" s="1">
+      <c r="A314">
         <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" s="1">
+      <c r="A315">
         <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" s="1">
+      <c r="A316">
         <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" s="1">
-        <v>1</v>
+      <c r="A317">
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" s="1">
+      <c r="A318">
         <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" s="1">
-        <v>0</v>
+      <c r="A319">
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" s="1">
-        <v>0</v>
+      <c r="A320">
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" s="1">
-        <v>1</v>
+      <c r="A321">
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" s="1">
+      <c r="A322">
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" s="1">
-        <v>1</v>
+      <c r="A323">
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" s="1">
+      <c r="A324">
         <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" s="1">
-        <v>0</v>
+      <c r="A325">
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" s="1">
+      <c r="A326">
         <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" s="1">
+      <c r="A327">
         <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A328" s="1">
+      <c r="A328">
         <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A329" s="1">
+      <c r="A329">
         <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330" s="1">
+      <c r="A330">
         <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" s="1">
-        <v>0</v>
+      <c r="A331">
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A332" s="1">
-        <v>1</v>
+      <c r="A332">
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333" s="1">
-        <v>0</v>
+      <c r="A333">
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A334" s="1">
-        <v>1</v>
+      <c r="A334">
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A335" s="1">
+      <c r="A335">
         <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336" s="1">
+      <c r="A336">
         <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" s="1">
-        <v>0</v>
+      <c r="A337">
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" s="1">
-        <v>1</v>
+      <c r="A338">
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" s="1">
-        <v>1</v>
+      <c r="A339">
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A340" s="1">
+      <c r="A340">
         <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A341" s="1">
+      <c r="A341">
         <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A342" s="1">
-        <v>0</v>
+      <c r="A342">
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A343" s="1">
-        <v>0</v>
+      <c r="A343">
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A344" s="1">
-        <v>1</v>
+      <c r="A344">
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A345" s="1">
-        <v>0</v>
+      <c r="A345">
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A346" s="1">
-        <v>1</v>
+      <c r="A346">
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A347" s="1">
+      <c r="A347">
         <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A348" s="1">
+      <c r="A348">
         <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A349" s="1">
+      <c r="A349">
         <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A350" s="1">
+      <c r="A350">
         <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" s="1">
-        <v>1</v>
+      <c r="A351">
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A352" s="1">
-        <v>0</v>
+      <c r="A352">
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" s="1">
+      <c r="A353">
         <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A354" s="1">
+      <c r="A354">
         <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A355" s="1">
-        <v>1</v>
+      <c r="A355">
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A356" s="1">
+      <c r="A356">
         <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" s="1">
-        <v>0</v>
+      <c r="A357">
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A358" s="1">
+      <c r="A358">
         <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" s="1">
+      <c r="A359">
         <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360" s="1">
-        <v>1</v>
+      <c r="A360">
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" s="1">
-        <v>0</v>
+      <c r="A361">
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A362" s="1">
+      <c r="A362">
         <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363" s="1">
+      <c r="A363">
         <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A364" s="1">
+      <c r="A364">
         <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A365" s="1">
-        <v>1</v>
+      <c r="A365">
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366" s="1">
-        <v>0</v>
+      <c r="A366">
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" s="1">
+      <c r="A367">
         <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A368" s="1">
+      <c r="A368">
         <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" s="1">
+      <c r="A369">
         <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A370" s="1">
+      <c r="A370">
         <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A371" s="1">
+      <c r="A371">
         <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372" s="1">
-        <v>0</v>
+      <c r="A372">
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A373" s="1">
+      <c r="A373">
         <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A374" s="1">
-        <v>1</v>
+      <c r="A374">
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" s="1">
-        <v>1</v>
+      <c r="A375">
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A376" s="1">
-        <v>0</v>
+      <c r="A376">
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A377" s="1">
-        <v>0</v>
+      <c r="A377">
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378" s="1">
-        <v>1</v>
+      <c r="A378">
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A379" s="1">
-        <v>0</v>
+      <c r="A379">
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A380" s="1">
-        <v>1</v>
+      <c r="A380">
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A381" s="1">
+      <c r="A381">
         <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A382" s="1">
+      <c r="A382">
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" s="1">
+      <c r="A383">
         <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384" s="1">
+      <c r="A384">
         <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" s="1">
+      <c r="A385">
         <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A386" s="1">
-        <v>1</v>
+      <c r="A386">
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" s="1">
+      <c r="A387">
         <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" s="1">
+      <c r="A388">
         <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" s="1">
-        <v>0</v>
+      <c r="A389">
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390" s="1">
+      <c r="A390">
         <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" s="1">
-        <v>0</v>
+      <c r="A391">
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" s="1">
-        <v>1</v>
+      <c r="A392">
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A393" s="1">
-        <v>0</v>
+      <c r="A393">
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" s="1">
-        <v>1</v>
+      <c r="A394">
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" s="1">
-        <v>1</v>
+      <c r="A395">
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" s="1">
-        <v>0</v>
+      <c r="A396">
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" s="1">
+      <c r="A397">
         <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" s="1">
+      <c r="A398">
         <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" s="1">
-        <v>0</v>
+      <c r="A399">
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" s="1">
-        <v>1</v>
+      <c r="A400">
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" s="1">
-        <v>1</v>
+      <c r="A401">
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" s="1">
+      <c r="A402">
         <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A403" s="1">
+      <c r="A403">
         <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" s="1">
-        <v>0</v>
+      <c r="A404">
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A405" s="1">
-        <v>1</v>
+      <c r="A405">
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A406" s="1">
-        <v>0</v>
+      <c r="A406">
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A407" s="1">
+      <c r="A407">
         <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A408" s="1">
+      <c r="A408">
         <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A409" s="1">
-        <v>0</v>
+      <c r="A409">
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A410" s="1">
-        <v>1</v>
+      <c r="A410">
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A411" s="1">
-        <v>0</v>
+      <c r="A411">
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" s="1">
+      <c r="A412">
         <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A413" s="1">
+      <c r="A413">
         <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" s="1">
-        <v>1</v>
+      <c r="A414">
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" s="1">
+      <c r="A415">
         <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A416" s="1">
+      <c r="A416">
         <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" s="1">
+      <c r="A417">
         <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" s="1">
+      <c r="A418">
         <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" s="1">
-        <v>1</v>
+      <c r="A419">
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" s="1">
-        <v>0</v>
+      <c r="A420">
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" s="1">
-        <v>0</v>
+      <c r="A421">
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" s="1">
-        <v>1</v>
+      <c r="A422">
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" s="1">
+      <c r="A423">
         <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A424" s="1">
-        <v>0</v>
+      <c r="A424">
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A425" s="1">
+      <c r="A425">
         <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" s="1">
-        <v>1</v>
+      <c r="A426">
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A427" s="1">
-        <v>0</v>
+      <c r="A427">
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" s="1">
-        <v>1</v>
+      <c r="A428">
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" s="1">
-        <v>0</v>
+      <c r="A429">
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" s="1">
-        <v>1</v>
+      <c r="A430">
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" s="1">
+      <c r="A431">
         <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" s="1">
+      <c r="A432">
         <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" s="1">
+      <c r="A433">
         <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A434" s="1">
+      <c r="A434">
         <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" s="1">
-        <v>0</v>
+      <c r="A435">
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" s="1">
-        <v>1</v>
+      <c r="A436">
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" s="1">
-        <v>1</v>
+      <c r="A437">
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" s="1">
+      <c r="A438">
         <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" s="1">
-        <v>0</v>
+      <c r="A439">
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" s="1">
-        <v>1</v>
+      <c r="A440">
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441" s="1">
-        <v>0</v>
+      <c r="A441">
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A442" s="1">
+      <c r="A442">
         <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A443" s="1">
-        <v>1</v>
+      <c r="A443">
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444" s="1">
-        <v>0</v>
+      <c r="A444">
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" s="1">
+      <c r="A445">
         <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" s="1">
+      <c r="A446">
         <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" s="1">
-        <v>0</v>
+      <c r="A447">
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" s="1">
-        <v>1</v>
+      <c r="A448">
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A449" s="1">
+      <c r="A449">
         <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" s="1">
+      <c r="A450">
         <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A451" s="1">
+      <c r="A451">
         <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" s="1">
-        <v>0</v>
+      <c r="A452">
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" s="1">
+      <c r="A453">
         <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" s="1">
-        <v>0</v>
+      <c r="A454">
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" s="1">
+      <c r="A455">
         <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" s="1">
-        <v>0</v>
+      <c r="A456">
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" s="1">
-        <v>0</v>
+      <c r="A457">
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" s="1">
+      <c r="A458">
         <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A459" s="1">
+      <c r="A459">
         <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" s="1">
-        <v>1</v>
+      <c r="A460">
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" s="1">
-        <v>0</v>
+      <c r="A461">
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" s="1">
+      <c r="A462">
         <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A463" s="1">
-        <v>0</v>
+      <c r="A463">
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A464" s="1">
+      <c r="A464">
         <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A465" s="1">
-        <v>1</v>
+      <c r="A465">
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A466" s="1">
+      <c r="A466">
         <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A467" s="1">
+      <c r="A467">
         <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A468" s="1">
-        <v>1</v>
+      <c r="A468">
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A469" s="1">
-        <v>1</v>
+      <c r="A469">
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A470" s="1">
+      <c r="A470">
         <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A471" s="1">
-        <v>1</v>
+      <c r="A471">
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A472" s="1">
+      <c r="A472">
         <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A473" s="1">
+      <c r="A473">
         <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A474" s="1">
-        <v>1</v>
+      <c r="A474">
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A475" s="1">
+      <c r="A475">
         <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A476" s="1">
-        <v>0</v>
+      <c r="A476">
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A477" s="1">
+      <c r="A477">
         <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A478" s="1">
-        <v>0</v>
+      <c r="A478">
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A479" s="1">
+      <c r="A479">
         <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A480" s="1">
+      <c r="A480">
         <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A481" s="1">
+      <c r="A481">
         <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A482" s="1">
+      <c r="A482">
         <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A483" s="1">
-        <v>0</v>
+      <c r="A483">
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A484" s="1">
+      <c r="A484">
         <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A485" s="1">
-        <v>0</v>
+      <c r="A485">
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A486" s="1">
+      <c r="A486">
         <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A487" s="1">
-        <v>0</v>
+      <c r="A487">
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A488" s="1">
+      <c r="A488">
         <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A489" s="1">
-        <v>1</v>
+      <c r="A489">
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A490" s="1">
+      <c r="A490">
         <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A491" s="1">
+      <c r="A491">
         <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A492" s="1">
-        <v>1</v>
+      <c r="A492">
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A493" s="1">
-        <v>1</v>
+      <c r="A493">
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A494" s="1">
-        <v>0</v>
+      <c r="A494">
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A495" s="1">
-        <v>1</v>
+      <c r="A495">
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A496" s="1">
+      <c r="A496">
         <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A497" s="1">
+      <c r="A497">
         <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A498" s="1">
-        <v>1</v>
+      <c r="A498">
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A499" s="1">
+      <c r="A499">
         <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A500" s="1">
-        <v>1</v>
+      <c r="A500">
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A501" s="1">
-        <v>0</v>
+      <c r="A501">
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A502" s="1">
+      <c r="A502">
         <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A503" s="1">
-        <v>0</v>
+      <c r="A503">
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A504" s="1">
+      <c r="A504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A675">
         <v>0</v>
       </c>
     </row>
